--- a/VisionModel/output/predicted_trajectoriesY.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100.3920350788843</v>
+        <v>-20.09988556775736</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>119.6843505894151</v>
+        <v>26.93396066402152</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>134.9760289787188</v>
+        <v>26.1890690863497</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>148.2268445543842</v>
+        <v>40.5294689487978</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>151.1577865355654</v>
+        <v>57.45701136205512</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>163.2964224966504</v>
+        <v>68.08166002029758</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>174.9505407529159</v>
+        <v>92.38384244685979</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>186.0358113911466</v>
+        <v>101.8395708829993</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>199.4470715964183</v>
+        <v>118.3588582572152</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>209.6412699590265</v>
+        <v>127.9501875438875</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>218.5182026527954</v>
+        <v>135.1299865423651</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>233.1713732598241</v>
+        <v>147.1257779744952</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>243.4319836860871</v>
+        <v>163.1948116121281</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>255.5092929354313</v>
+        <v>171.9127730373955</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>252.3499329463927</v>
+        <v>183.8433836327171</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>266.337662137631</v>
+        <v>191.7349824875643</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>264.4520289841268</v>
+        <v>202.7406588936277</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>279.236702105408</v>
+        <v>208.4263569882514</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>294.009177422496</v>
+        <v>220.955472444577</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>303.5369747007919</v>
+        <v>226.6929536597885</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>309.4603285226959</v>
+        <v>234.8831737574142</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>318.2620306671174</v>
+        <v>222.997923082522</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>334.8186901376101</v>
+        <v>253.0106256471292</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>346.7415772427743</v>
+        <v>265.0575906020436</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>349.1649849525193</v>
+        <v>271.485941374627</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>357.9333502304062</v>
+        <v>285.7487970790505</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>373.7493225309593</v>
+        <v>301.9355845705513</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>377.7296520451882</v>
+        <v>304.9168434895126</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>388.7448378442883</v>
+        <v>316.1300149582157</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>432.2762898368281</v>
+        <v>331.0114815109552</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>458.2460522318007</v>
+        <v>331.1661896002388</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>471.3307472285139</v>
+        <v>342.2958775762802</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>490.58903776594</v>
+        <v>387.1280950623595</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>508.5733155690476</v>
+        <v>402.6338330601983</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>515.5841517298874</v>
+        <v>428.7572957296376</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>522.4098722886336</v>
+        <v>440.4314262612564</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>543.2963391623589</v>
+        <v>471.5973450697712</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>558.0883753182536</v>
+        <v>478.8135481218333</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>572.5039958814351</v>
+        <v>494.5974419764873</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>577.0410579172782</v>
+        <v>506.4176502373559</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>594.6804430632462</v>
+        <v>519.8145692529029</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>602.0272576020816</v>
+        <v>523.1197761242677</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>613.1180441455676</v>
+        <v>515.4281346601889</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>607.7750146073014</v>
+        <v>543.6370417721078</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>612.75343075032</v>
+        <v>552.8921870723887</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>632.2629263202522</v>
+        <v>566.5167712529859</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>638.3591508134109</v>
+        <v>571.0145799563303</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>655.5504394903044</v>
+        <v>599.6063612714547</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>658.0680313772486</v>
+        <v>606.504222669016</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>668.8213027133179</v>
+        <v>613.9769481991199</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>674.6602402268702</v>
+        <v>633.5287141327602</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>683.6946971029427</v>
+        <v>639.9936875478271</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>689.9102203932912</v>
+        <v>648.8585111159709</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>707.3706990273647</v>
+        <v>663.3866026351061</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>699.6128869420861</v>
+        <v>659.2658763869146</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>715.3734410394411</v>
+        <v>676.1422081189438</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>716.6221784672434</v>
+        <v>677.5446386290897</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>714.5432839410487</v>
+        <v>675.8333807842894</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>723.8459983698236</v>
+        <v>685.0206265226069</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>721.6820775558078</v>
+        <v>684.7600759324165</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>725.5512162300363</v>
+        <v>685.8514501910832</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesY.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-20.09988556775736</v>
+        <v>101.4370242300828</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>26.93396066402152</v>
+        <v>150.3499797448662</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>26.1890690863497</v>
+        <v>151.9728515229124</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>40.5294689487978</v>
+        <v>163.3596629612691</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>57.45701136205512</v>
+        <v>176.0488093123393</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>68.08166002029758</v>
+        <v>183.4988015505617</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>92.38384244685979</v>
+        <v>198.9898690702179</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>101.8395708829993</v>
+        <v>211.3453253405451</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>118.3588582572152</v>
+        <v>220.8600366436154</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>127.9501875438875</v>
+        <v>231.3530538708553</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>135.1299865423651</v>
+        <v>240.4283277305466</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>147.1257779744952</v>
+        <v>255.9259801349731</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>163.1948116121281</v>
+        <v>266.6673492893227</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>171.9127730373955</v>
+        <v>277.0108800807276</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>183.8433836327171</v>
+        <v>287.9259340340946</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>191.7349824875643</v>
+        <v>298.3931317406788</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>202.7406588936277</v>
+        <v>308.937849150324</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>208.4263569882514</v>
+        <v>325.4175394927131</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>220.955472444577</v>
+        <v>337.7143707405003</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>226.6929536597885</v>
+        <v>341.2812461794886</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>234.8831737574142</v>
+        <v>341.7449858454843</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>222.997923082522</v>
+        <v>347.3246968335141</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>253.0106256471292</v>
+        <v>367.5102459042889</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>265.0575906020436</v>
+        <v>373.1642124421396</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>271.485941374627</v>
+        <v>380.6281461016606</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>285.7487970790505</v>
+        <v>388.9709587952946</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>301.9355845705513</v>
+        <v>415.2880643798964</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>304.9168434895126</v>
+        <v>437.4978522305693</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>316.1300149582157</v>
+        <v>448.4061001706738</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>331.0114815109552</v>
+        <v>439.4886542169731</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>331.1661896002388</v>
+        <v>460.0307898036918</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>342.2958775762802</v>
+        <v>467.8163474639193</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>387.1280950623595</v>
+        <v>481.64120677123</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>402.6338330601983</v>
+        <v>497.598626185464</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>428.7572957296376</v>
+        <v>503.316305737075</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>440.4314262612564</v>
+        <v>527.0153039849024</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>471.5973450697712</v>
+        <v>538.3573138003455</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>478.8135481218333</v>
+        <v>545.9132275844604</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>494.5974419764873</v>
+        <v>563.8887695284817</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>506.4176502373559</v>
+        <v>574.812629860202</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>519.8145692529029</v>
+        <v>592.8889755424773</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>523.1197761242677</v>
+        <v>595.7392959018432</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>515.4281346601889</v>
+        <v>605.8916305172444</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>543.6370417721078</v>
+        <v>624.8788325562953</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>552.8921870723887</v>
+        <v>632.529950172489</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>566.5167712529859</v>
+        <v>644.6888067419999</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>571.0145799563303</v>
+        <v>650.7045255107772</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>599.6063612714547</v>
+        <v>652.7194404791653</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>606.504222669016</v>
+        <v>660.5322201098958</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>613.9769481991199</v>
+        <v>671.4525067528568</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>633.5287141327602</v>
+        <v>680.4621471419323</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>639.9936875478271</v>
+        <v>694.3953568960471</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>648.8585111159709</v>
+        <v>698.3846217514247</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>663.3866026351061</v>
+        <v>706.1754432635656</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>659.2658763869146</v>
+        <v>710.9830896920272</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>676.1422081189438</v>
+        <v>720.3687777948928</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>677.5446386290897</v>
+        <v>722.0632509819307</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>675.8333807842894</v>
+        <v>725.0573360751989</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>685.0206265226069</v>
+        <v>732.9991720540273</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>684.7600759324165</v>
+        <v>732.7442870247081</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>685.8514501910832</v>
+        <v>735.1545484047505</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesY.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>101.4370242300828</v>
+        <v>136.4330001899934</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>150.3499797448662</v>
+        <v>163.6436659911002</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>151.9728515229124</v>
+        <v>172.8607842485089</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>163.3596629612691</v>
+        <v>181.9214503578388</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>176.0488093123393</v>
+        <v>199.785439055213</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>183.4988015505617</v>
+        <v>205.9547641225778</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>198.9898690702179</v>
+        <v>220.3971529742912</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>211.3453253405451</v>
+        <v>235.0497901439441</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>220.8600366436154</v>
+        <v>247.5909114315268</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>231.3530538708553</v>
+        <v>255.1109172637569</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>240.4283277305466</v>
+        <v>262.7569266497218</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>255.9259801349731</v>
+        <v>275.8809256278674</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>266.6673492893227</v>
+        <v>287.3274738669512</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>277.0108800807276</v>
+        <v>299.0575203880709</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>287.9259340340946</v>
+        <v>307.5138449752932</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>298.3931317406788</v>
+        <v>329.6138629390286</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>308.937849150324</v>
+        <v>339.4019635782203</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>325.4175394927131</v>
+        <v>358.1656308301314</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>337.7143707405003</v>
+        <v>370.9437000845166</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>341.2812461794886</v>
+        <v>372.997120499747</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>341.7449858454843</v>
+        <v>377.7280772993946</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>347.3246968335141</v>
+        <v>382.3275450050054</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>367.5102459042889</v>
+        <v>398.4318941415669</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>373.1642124421396</v>
+        <v>413.6587479405925</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>380.6281461016606</v>
+        <v>422.0123903175068</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>388.9709587952946</v>
+        <v>438.3690659174299</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>415.2880643798964</v>
+        <v>449.2243424193895</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>437.4978522305693</v>
+        <v>453.702635103083</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>448.4061001706738</v>
+        <v>464.3342704125094</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>439.4886542169731</v>
+        <v>515.6333318777102</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>460.0307898036918</v>
+        <v>515.2474954834963</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>467.8163474639193</v>
+        <v>533.688137223595</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>481.64120677123</v>
+        <v>543.352441996271</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>497.598626185464</v>
+        <v>569.1668006838763</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>503.316305737075</v>
+        <v>575.6420470888818</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>527.0153039849024</v>
+        <v>585.4507704061054</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>538.3573138003455</v>
+        <v>604.4347730903877</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>545.9132275844604</v>
+        <v>612.3359978218533</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>563.8887695284817</v>
+        <v>629.0964194563225</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>574.812629860202</v>
+        <v>636.6687699528651</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>592.8889755424773</v>
+        <v>647.0619079827162</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>595.7392959018432</v>
+        <v>651.611472132797</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>605.8916305172444</v>
+        <v>658.920603788008</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>624.8788325562953</v>
+        <v>680.7530064505553</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>632.529950172489</v>
+        <v>694.2825835001809</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>644.6888067419999</v>
+        <v>688.0981489222677</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>650.7045255107772</v>
+        <v>705.4050740639814</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>652.7194404791653</v>
+        <v>696.8193675717018</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>660.5322201098958</v>
+        <v>698.623515216703</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>671.4525067528568</v>
+        <v>707.496936660839</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>680.4621471419323</v>
+        <v>724.3214951031605</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>694.3953568960471</v>
+        <v>727.8953008724416</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>698.3846217514247</v>
+        <v>736.4031472035331</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>706.1754432635656</v>
+        <v>748.3914581934595</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>710.9830896920272</v>
+        <v>745.0841051967426</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>720.3687777948928</v>
+        <v>760.0231407208379</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>722.0632509819307</v>
+        <v>766.6683821055805</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>725.0573360751989</v>
+        <v>768.391092501607</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>732.9991720540273</v>
+        <v>771.2482476034353</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>732.7442870247081</v>
+        <v>771.1346497471062</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>735.1545484047505</v>
+        <v>776.6082943289654</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesY.xlsx
+++ b/VisionModel/output/predicted_trajectoriesY.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>136.4330001899934</v>
+        <v>103.8374204181422</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>163.6436659911002</v>
+        <v>117.1151164473825</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>172.8607842485089</v>
+        <v>119.4110606755175</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>181.9214503578388</v>
+        <v>136.2096301478599</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>199.785439055213</v>
+        <v>158.2918350324003</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>205.9547641225778</v>
+        <v>163.1849125657315</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>220.3971529742912</v>
+        <v>177.1411248488167</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>235.0497901439441</v>
+        <v>193.4043851827645</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>247.5909114315268</v>
+        <v>215.4590554986885</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>255.1109172637569</v>
+        <v>224.336968030124</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>262.7569266497218</v>
+        <v>229.2257191944717</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>275.8809256278674</v>
+        <v>243.1499849728491</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>287.3274738669512</v>
+        <v>253.5736295707525</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>299.0575203880709</v>
+        <v>267.3199243764205</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>307.5138449752932</v>
+        <v>270.7222645061136</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>329.6138629390286</v>
+        <v>287.3662580521499</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>339.4019635782203</v>
+        <v>293.3167470268107</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>358.1656308301314</v>
+        <v>306.4229130947654</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>370.9437000845166</v>
+        <v>315.9232784034401</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>372.997120499747</v>
+        <v>328.2875258911848</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>377.7280772993946</v>
+        <v>344.6166804119313</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>382.3275450050054</v>
+        <v>352.7094509487043</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>398.4318941415669</v>
+        <v>352.7441020764021</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>413.6587479405925</v>
+        <v>361.7056148216471</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>422.0123903175068</v>
+        <v>371.587840846849</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>438.3690659174299</v>
+        <v>388.6551514251913</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>449.2243424193895</v>
+        <v>404.3854989028974</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>453.702635103083</v>
+        <v>407.7086747031861</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>464.3342704125094</v>
+        <v>419.0683999097981</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>515.6333318777102</v>
+        <v>411.724143966949</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>515.2474954834963</v>
+        <v>420.9523327099513</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>533.688137223595</v>
+        <v>423.3908706175966</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>543.352441996271</v>
+        <v>443.4889444088479</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>569.1668006838763</v>
+        <v>463.0784582705287</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>575.6420470888818</v>
+        <v>463.0165240485661</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>585.4507704061054</v>
+        <v>474.4062461289118</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>604.4347730903877</v>
+        <v>498.4968046305327</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>612.3359978218533</v>
+        <v>496.7905357500559</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>629.0964194563225</v>
+        <v>511.9083059793905</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>636.6687699528651</v>
+        <v>527.4384052033954</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>647.0619079827162</v>
+        <v>539.1244830164649</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>651.611472132797</v>
+        <v>542.022563681335</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>658.920603788008</v>
+        <v>558.2228568778291</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>680.7530064505553</v>
+        <v>566.8859578507953</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>694.2825835001809</v>
+        <v>573.8101819391982</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>688.0981489222677</v>
+        <v>568.5705620517134</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>705.4050740639814</v>
+        <v>576.2008181593129</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>696.8193675717018</v>
+        <v>596.4006279503204</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>698.623515216703</v>
+        <v>599.6277182022559</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>707.496936660839</v>
+        <v>600.3262026089017</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>724.3214951031605</v>
+        <v>609.4329745905666</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>727.8953008724416</v>
+        <v>612.0423566192328</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>736.4031472035331</v>
+        <v>621.3326023214269</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>748.3914581934595</v>
+        <v>639.4546735964685</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>745.0841051967426</v>
+        <v>631.2355020184473</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>760.0231407208379</v>
+        <v>648.7264335148374</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>766.6683821055805</v>
+        <v>649.94556550322</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>768.391092501607</v>
+        <v>650.0099109054011</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>771.2482476034353</v>
+        <v>652.4215876579328</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>771.1346497471062</v>
+        <v>651.9769151425614</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>776.6082943289654</v>
+        <v>654.0717279037372</v>
       </c>
     </row>
   </sheetData>
